--- a/biology/Botanique/Tillandsia_acostae/Tillandsia_acostae.xlsx
+++ b/biology/Botanique/Tillandsia_acostae/Tillandsia_acostae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia acostae est une espèce de plantes à fleurs de la famille des Bromeliaceae, originaire du Mexique au Costa Rica.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épithète acostae est une dédicace à Monsieur Acosta, préfet du district de San Ramón au Costa Rica, zone où a été découverte la plante.
 </t>
@@ -542,13 +556,15 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tillandsia acostae Mez &amp; Tonduz ex Mez, in Repert. Spec. Nov. Regni Veg. 14: 252 (1916)
-Diagnose originale[1]  :
+Diagnose originale  :
 « Foliis subbulbose rosulatis, utrinque lepidibus pallidis, appressis obtectis canescentibus, siccis subulatim involutis; inflorescentia nunc simplice nunc digitatim e spicis 2 omnino aequalibus composita; bracteis florigeris quam maxime concavis spicas fere teretes reddeuntibus, densissime imbricatis, rigidiusculus, glabris apicem versus prominulo-venosis, latissime breviterque subacuminatim acutis, in parte superiore bene carinatis, sepala optime superantibus; floribus stricte erectis; sepalis antico libero posticis binis ultra medium connatis, acutiusculis; petalis tubulose erectis, quam stamina optime brevioribus; stylo perlongo. »
 Type :
-leg. A. Tonduz, n° 17891, 1913-05-13 ; « Costarica, in collium Tremendalium prope San Ramon nemoribus, alt. 1200-1400m »[1] ; « Costa Rica : Forêts des collines de Tremendal, près San Ramon, 1300-1400 m. » ; Holotypus B (B 10 0296326).
+leg. A. Tonduz, n° 17891, 1913-05-13 ; « Costarica, in collium Tremendalium prope San Ramon nemoribus, alt. 1200-1400m » ; « Costa Rica : Forêts des collines de Tremendal, près San Ramon, 1300-1400 m. » ; Holotypus B (B 10 0296326).
 leg. A. Tonduz, n° 17891, 1913-05-13 ; « Costa Rica : Forêts des collines de Tremendal, près San Ramon, 1300-1400 m. » ; Isotypus US National Herbarium (US 00089109)</t>
         </is>
       </c>
@@ -579,10 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-(aucune)
-Synonymie taxonomique
-Tillandsia rhomboidea André (proposée par H.Luther 1996)[2]</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
@@ -607,10 +626,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tillandsia rhomboidea André (proposée par H.Luther 1996)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -633,16 +662,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée en rosette monocarpique, vivace par ses rejets latéraux ; épiphyte[2] à racines fonctionnelles.
-Habitat : forêt pluviale[2].
-Altitude : 1200-1400 m[1]  ; 750-1300 m[2].</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -665,18 +690,16 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Amérique du Nord
- Mexique[2]
-Amérique centrale :
- Costa Rica[1],[3],[2]
- Guatemala[2]
- Honduras[2]
- Panama[2]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée en rosette monocarpique, vivace par ses rejets latéraux ; épiphyte à racines fonctionnelles.
+Habitat : forêt pluviale.
+Altitude : 1200-1400 m  ; 750-1300 m.</t>
         </is>
       </c>
     </row>
@@ -701,10 +724,50 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Amérique du Nord
+ Mexique
+Amérique centrale :
+ Costa Rica
+ Guatemala
+ Honduras
+ Panama</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tillandsia_acostae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_acostae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
